--- a/Documents/Shared Variables.xlsx
+++ b/Documents/Shared Variables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A41EF-5B14-4944-8ECB-3C778256AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30930426-2CFC-4ACF-9B36-54846AB52554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmed Var" sheetId="1" r:id="rId1"/>
     <sheet name="GRBL Var" sheetId="2" r:id="rId2"/>
+    <sheet name="PC Var" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="108">
   <si>
     <t>Variable Symbol</t>
   </si>
@@ -79,17 +80,296 @@
     <t>bool</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>New_Product_Selection_ability</t>
+  </si>
+  <si>
+    <t>Lubricated</t>
+  </si>
+  <si>
+    <t>Foam_Number_to_Manufacture</t>
+  </si>
+  <si>
+    <t>New_foam_is_manufactured</t>
+  </si>
+  <si>
+    <t>The_New_Foam_recorded</t>
+  </si>
+  <si>
+    <t>Foam Path information</t>
+  </si>
+  <si>
+    <t>Foam_Fixation_Places_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foam_Manufactured_Stages_Number </t>
+  </si>
+  <si>
+    <t>Fixation_Place_1</t>
+  </si>
+  <si>
+    <t>Fixation_Place_2</t>
+  </si>
+  <si>
+    <t>Fixation_Point_2_X</t>
+  </si>
+  <si>
+    <t>Handlin_Point_12_Path1</t>
+  </si>
+  <si>
+    <t>Handlin_Point_23_Path1</t>
+  </si>
+  <si>
+    <t>Handlin_Point_12_Path2</t>
+  </si>
+  <si>
+    <t>Handlin_Point_23_Path2</t>
+  </si>
+  <si>
+    <t>Gcode_file_Path_1</t>
+  </si>
+  <si>
+    <t>Gcode_file_Path_2</t>
+  </si>
+  <si>
+    <t>Head1_Start_Position_X</t>
+  </si>
+  <si>
+    <t>Gcode_File_Path_1</t>
+  </si>
+  <si>
+    <t>Gcode_File_Path_2</t>
+  </si>
+  <si>
+    <t>Head1_Start_Position_Y</t>
+  </si>
+  <si>
+    <t>Head2_Start_Position_X</t>
+  </si>
+  <si>
+    <t>Head2_Start_Position_Y</t>
+  </si>
+  <si>
+    <t>Foam_X_Width</t>
+  </si>
+  <si>
+    <t>Foam_Y_Width</t>
+  </si>
+  <si>
+    <t>Head1_Frame_Y_sensor</t>
+  </si>
+  <si>
+    <t>Head2_Frame_Y_sensor</t>
+  </si>
+  <si>
+    <t>Feeder_Extraction_Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufactured_Foam_Number_before_Blowering </t>
+  </si>
+  <si>
+    <t>Move Motors</t>
+  </si>
+  <si>
+    <t>Move_Motor_Head</t>
+  </si>
+  <si>
+    <t>Move_Motor_CNC_Gate</t>
+  </si>
+  <si>
+    <t>Move_Motor_Forks</t>
+  </si>
+  <si>
+    <t>Move_Motor_Fixation</t>
+  </si>
+  <si>
+    <t>Move_Modor_Head_Number</t>
+  </si>
+  <si>
+    <t>Move_Modor_Fork_Number</t>
+  </si>
+  <si>
+    <t>x+</t>
+  </si>
+  <si>
+    <t>x-</t>
+  </si>
+  <si>
+    <t>y+</t>
+  </si>
+  <si>
+    <t>y-</t>
+  </si>
+  <si>
+    <t>z+</t>
+  </si>
+  <si>
+    <t>z-</t>
+  </si>
+  <si>
+    <t>Move_Motor_Arduino</t>
+  </si>
+  <si>
+    <t>true--&gt; CNC Arduino     false--&gt;Forks Arduino</t>
+  </si>
+  <si>
+    <t>Sensor_Read_CNC</t>
+  </si>
+  <si>
+    <t>Sensor_Read_Forks</t>
+  </si>
+  <si>
+    <t>SD_Card_Used</t>
+  </si>
+  <si>
+    <t>previous manufactured part are finished. To send new foam path information or to update the Gcode in Sd card or to control the motion of any motor.</t>
+  </si>
+  <si>
+    <t>Sensor Test</t>
+  </si>
+  <si>
+    <t>Sensor_No</t>
+  </si>
+  <si>
+    <t>Feeder_Sensor</t>
+  </si>
+  <si>
+    <t>0)Nothing  1)Between feeder and CNC   2)After CNC  3)Fork2 Back 1   4)Fork2 Back2   5)Fork2 Back4  6)Fork3 Back 1   7)Fork3 Back2   8)Fork3 Back4   9)CNC Gate1   10)CNC Gate2  11)CNC Gate4       12)Fork1 Up   13)Fork2 Up   14)Fork3 Up    15)Fork1 Down   16)Fork2 Down    17)Fork3 Down      18)Table-Fork1   19)Fork1-Fork2    20)Fork2-Fork3    21)Fork3-Table   22)CNC Gate Up   23)CNC Gate Down</t>
+  </si>
+  <si>
+    <t>0)Nothing    1)Side wood1  2)Side wood2   3)Side wood3   4)Side wood4   5)Side wood5   6)Fixation Cart1   7)Fixation Cart2   8)Head1 Down   9)Head2 Down   10)FrameX-Head1   11)Head1-Head2    12)Head2-X Frame    13)FrameY-Fixation1    14)Fixation1-Head1   15)Head1-Y Frame   16)FrameY-Fixation2    17)Fixation2-Head2   18)Head2-Y Frame    19)Head1-Y Frame Second      20)Head2-Y Frame second    21)Head1 Up   22)Head2 Up</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Sense_CNC</t>
+  </si>
+  <si>
+    <t>Sence_Fork</t>
+  </si>
+  <si>
+    <t>Mode_of_operation_Fork</t>
+  </si>
+  <si>
+    <t>Finish_Mode_Operation_Fork</t>
+  </si>
+  <si>
+    <t>Mode_of_operation_CNC</t>
+  </si>
+  <si>
+    <t>Finish_Mode_Operation_CNC</t>
+  </si>
+  <si>
+    <t>Working Mode</t>
+  </si>
+  <si>
+    <t>1) CNC Gate &amp; Gork3     2) CNC Gate &amp; Fork2</t>
+  </si>
+  <si>
+    <t>1) Fork1&amp;2       2)Fork2&amp;3</t>
+  </si>
+  <si>
+    <t>1)G1         2)G2</t>
+  </si>
+  <si>
+    <t>1) large bit diameter          2) small bit diameter</t>
+  </si>
+  <si>
+    <t>All_Foam_Path_var_sent_CNC</t>
+  </si>
+  <si>
+    <t>All_Foam_Path_var_sent_Fork</t>
+  </si>
+  <si>
+    <t>Drawn_Foam_Count</t>
+  </si>
+  <si>
+    <t>Exit_Foam_Count</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Foam_1_step</t>
+  </si>
+  <si>
+    <t>1) initial   2) Y fixation   3)X fixation   4) CNC cuttint   5) final</t>
+  </si>
+  <si>
+    <t>Foam_2_step</t>
+  </si>
+  <si>
+    <t>Foam1_X_pos</t>
+  </si>
+  <si>
+    <t>Foam2_X_pos</t>
+  </si>
+  <si>
+    <t>All_Foam_Path_var_sent</t>
+  </si>
+  <si>
+    <t>0) No Mode   1)Move Motors   2)Sensor Test   3)Machine Calbration    4)Initial and Homing    5)Lubrication   6)Start Position   7)Head Z Axis   8)Working   9)Blowering   10)Simulation    11)Sleeping    12)Reset Faom Path Variable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Simulation Mode                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>similar to Working mode but with smaller variables</t>
+    </r>
+  </si>
+  <si>
+    <t>Calibration Mode</t>
+  </si>
+  <si>
+    <t>Fork Pc Shared Variables</t>
+  </si>
+  <si>
+    <t>Fork1_X</t>
+  </si>
+  <si>
+    <t>Fork2_x</t>
+  </si>
+  <si>
+    <t>Fork3_x</t>
+  </si>
+  <si>
+    <t>Fork1_Z</t>
+  </si>
+  <si>
+    <t>Fork2_Z</t>
+  </si>
+  <si>
+    <t>Fork3_Z</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Gcode_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +384,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +419,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,18 +497,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,115 +910,1490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="13.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="4" t="s">
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="2" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="11"/>
+      <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="2" t="s">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="12"/>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="12"/>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C57:C58"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 E2:E1048576 G2:G1048576" xr:uid="{A56ADFAA-C8C3-4EF6-BB7D-95E5E2C4AA6F}">
-      <formula1>$K$3:$K$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14 B89:B1048576 B87 B63:B85 B61 B59 B57 B55 B53 B43:B51 B36:B41 B24:B34 B20:B22 B18 B16" xr:uid="{4A13F612-D3D6-4F2C-9A8D-EBB5113EDCD1}">
+      <formula1>$I$14:$I$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{4A13F612-D3D6-4F2C-9A8D-EBB5113EDCD1}">
-      <formula1>$K$11:$K$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61 G43:G1048576 C63:C1048576 E43:E1048576 G2:G14 C2:C14 C16 C18 C20:C22 C24:C34 G16:G41 C36:C41 E16:E41 C43:C51 C53 C55 C57 C59 E2:E14" xr:uid="{A56ADFAA-C8C3-4EF6-BB7D-95E5E2C4AA6F}">
+      <formula1>$I$5:$I$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -584,8 +2405,135 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F015-F559-4910-8801-CD2F506A8721}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="24.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>